--- a/REGULAR/CASUAL-REGULAR FINAL/TOLENTINO, FE.xlsx
+++ b/REGULAR/CASUAL-REGULAR FINAL/TOLENTINO, FE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CASUAL-REGULAR FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759E95D2-7DF7-47D6-973F-DDFE9440DABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="300">
   <si>
     <t>PERIOD</t>
   </si>
@@ -939,7 +938,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1614,7 +1613,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1631,26 +1630,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K516" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K516" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K516" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K516"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1957,34 +1956,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K516"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1512" topLeftCell="A460" activePane="bottomLeft"/>
+      <pane ySplit="1515" topLeftCell="A460" activePane="bottomLeft"/>
       <selection activeCell="C8" sqref="C8"/>
-      <selection pane="bottomLeft" activeCell="C469" sqref="C469:C471"/>
+      <selection pane="bottomLeft" activeCell="E472" sqref="E472"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2005,7 +2004,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2023,7 +2022,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2045,7 +2044,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2053,7 +2052,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2066,7 +2065,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -2083,7 +2082,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2118,7 +2117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2142,7 +2141,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>36495</v>
       </c>
@@ -2166,7 +2165,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>83</v>
       </c>
@@ -2184,7 +2183,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>36526</v>
       </c>
@@ -2210,7 +2209,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <f>EDATE(A12,1)</f>
         <v>36557</v>
@@ -2231,7 +2230,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f t="shared" ref="A14:A37" si="0">EDATE(A13,1)</f>
         <v>36586</v>
@@ -2252,7 +2251,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>36617</v>
@@ -2279,7 +2278,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="20" t="s">
         <v>85</v>
@@ -2301,7 +2300,7 @@
         <v>36634</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f>EDATE(A15,1)</f>
         <v>36647</v>
@@ -2326,7 +2325,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>36678</v>
@@ -2353,7 +2352,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="B19" s="20" t="s">
         <v>44</v>
@@ -2372,7 +2371,7 @@
         <v>36705</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <f>EDATE(A18,1)</f>
         <v>36708</v>
@@ -2399,7 +2398,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="20" t="s">
         <v>55</v>
@@ -2418,7 +2417,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="20" t="s">
         <v>69</v>
@@ -2437,7 +2436,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="20" t="s">
         <v>45</v>
@@ -2454,7 +2453,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <f>EDATE(A20,1)</f>
         <v>36739</v>
@@ -2479,7 +2478,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>46</v>
@@ -2498,7 +2497,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="20" t="s">
         <v>94</v>
@@ -2517,7 +2516,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="20" t="s">
         <v>44</v>
@@ -2536,7 +2535,7 @@
         <v>36752</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="20" t="s">
         <v>98</v>
@@ -2555,7 +2554,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="20" t="s">
         <v>46</v>
@@ -2574,7 +2573,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="20" t="s">
         <v>44</v>
@@ -2593,7 +2592,7 @@
         <v>36769</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <f>EDATE(A24,1)</f>
         <v>36770</v>
@@ -2620,7 +2619,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="20" t="s">
         <v>85</v>
@@ -2639,7 +2638,7 @@
         <v>36797</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="20" t="s">
         <v>45</v>
@@ -2656,7 +2655,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
         <v>44</v>
@@ -2675,7 +2674,7 @@
         <v>36796</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
         <v>101</v>
@@ -2692,7 +2691,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <f>EDATE(A31,1)</f>
         <v>36800</v>
@@ -2713,7 +2712,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <f t="shared" si="0"/>
         <v>36831</v>
@@ -2738,7 +2737,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <f>EDATE(A37,1)</f>
         <v>36861</v>
@@ -2763,7 +2762,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
         <v>105</v>
       </c>
@@ -2781,7 +2780,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <f>EDATE(A38,1)</f>
         <v>36892</v>
@@ -2808,7 +2807,7 @@
         <v>36921</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <f>EDATE(A40,1)</f>
         <v>36923</v>
@@ -2835,7 +2834,7 @@
         <v>36924</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="20" t="s">
         <v>44</v>
@@ -2854,7 +2853,7 @@
         <v>36931</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="20" t="s">
         <v>44</v>
@@ -2873,7 +2872,7 @@
         <v>36938</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>101</v>
@@ -2890,7 +2889,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <f>EDATE(A41,1)</f>
         <v>36951</v>
@@ -2911,7 +2910,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <f t="shared" ref="A46:A52" si="1">EDATE(A45,1)</f>
         <v>36982</v>
@@ -2938,7 +2937,7 @@
         <v>37008</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
         <v>106</v>
@@ -2955,7 +2954,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="49"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <f>EDATE(A46,1)</f>
         <v>37012</v>
@@ -2980,7 +2979,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <f t="shared" si="1"/>
         <v>37043</v>
@@ -3001,7 +3000,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <f t="shared" si="1"/>
         <v>37073</v>
@@ -3022,7 +3021,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <f t="shared" si="1"/>
         <v>37104</v>
@@ -3047,7 +3046,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <f t="shared" si="1"/>
         <v>37135</v>
@@ -3074,7 +3073,7 @@
         <v>37161</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" s="20" t="s">
         <v>45</v>
@@ -3091,7 +3090,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <f>EDATE(A52,1)</f>
         <v>37165</v>
@@ -3118,7 +3117,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>44</v>
@@ -3137,7 +3136,7 @@
         <v>37188</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="B56" s="20" t="s">
         <v>54</v>
@@ -3156,7 +3155,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>44</v>
@@ -3175,7 +3174,7 @@
         <v>37190</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <f>EDATE(A54,1)</f>
         <v>37196</v>
@@ -3202,7 +3201,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
       <c r="B59" s="20" t="s">
         <v>44</v>
@@ -3221,7 +3220,7 @@
         <v>37202</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="B60" s="20" t="s">
         <v>44</v>
@@ -3240,7 +3239,7 @@
         <v>37215</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="20" t="s">
         <v>94</v>
@@ -3259,7 +3258,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="20" t="s">
         <v>45</v>
@@ -3276,7 +3275,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="B63" s="20" t="s">
         <v>52</v>
@@ -3295,7 +3294,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="20" t="s">
         <v>113</v>
@@ -3314,7 +3313,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="20" t="s">
         <v>94</v>
@@ -3333,7 +3332,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <f>EDATE(A58,1)</f>
         <v>37226</v>
@@ -3354,7 +3353,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
         <v>118</v>
       </c>
@@ -3372,7 +3371,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <f>EDATE(A66,1)</f>
         <v>37257</v>
@@ -3397,7 +3396,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <f>EDATE(A68,1)</f>
         <v>37288</v>
@@ -3422,7 +3421,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <f t="shared" ref="A70:A89" si="2">EDATE(A69,1)</f>
         <v>37316</v>
@@ -3449,7 +3448,7 @@
         <v>37333</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="20" t="s">
         <v>45</v>
@@ -3466,7 +3465,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
       <c r="B72" s="20" t="s">
         <v>122</v>
@@ -3483,7 +3482,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <f>EDATE(A70,1)</f>
         <v>37347</v>
@@ -3510,7 +3509,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23"/>
       <c r="B74" s="20" t="s">
         <v>46</v>
@@ -3529,7 +3528,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23"/>
       <c r="B75" s="20" t="s">
         <v>52</v>
@@ -3548,7 +3547,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23"/>
       <c r="B76" s="20" t="s">
         <v>123</v>
@@ -3565,7 +3564,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <f>EDATE(A73,1)</f>
         <v>37377</v>
@@ -3592,7 +3591,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23"/>
       <c r="B78" s="20" t="s">
         <v>44</v>
@@ -3611,7 +3610,7 @@
         <v>37386</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23"/>
       <c r="B79" s="20" t="s">
         <v>44</v>
@@ -3630,7 +3629,7 @@
         <v>37399</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <f>EDATE(A77,1)</f>
         <v>37408</v>
@@ -3657,7 +3656,7 @@
         <v>37428</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
         <v>44</v>
@@ -3676,7 +3675,7 @@
         <v>37427</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" s="20" t="s">
         <v>101</v>
@@ -3693,7 +3692,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <f>EDATE(A80,1)</f>
         <v>37438</v>
@@ -3714,7 +3713,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <f t="shared" si="2"/>
         <v>37469</v>
@@ -3741,7 +3740,7 @@
         <v>37498</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <f t="shared" si="2"/>
         <v>37500</v>
@@ -3768,7 +3767,7 @@
         <v>37504</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23"/>
       <c r="B86" s="20" t="s">
         <v>130</v>
@@ -3785,7 +3784,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <f>EDATE(A85,1)</f>
         <v>37530</v>
@@ -3806,7 +3805,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <f t="shared" si="2"/>
         <v>37561</v>
@@ -3827,7 +3826,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <f t="shared" si="2"/>
         <v>37591</v>
@@ -3852,7 +3851,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="48" t="s">
         <v>119</v>
       </c>
@@ -3870,7 +3869,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <f>EDATE(A89,1)</f>
         <v>37622</v>
@@ -3891,7 +3890,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <f>EDATE(A91,1)</f>
         <v>37653</v>
@@ -3918,7 +3917,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <f t="shared" ref="A93:A97" si="3">EDATE(A92,1)</f>
         <v>37681</v>
@@ -3945,7 +3944,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
         <v>44</v>
@@ -3964,7 +3963,7 @@
         <v>37698</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <f>EDATE(A93,1)</f>
         <v>37712</v>
@@ -3989,7 +3988,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <f t="shared" si="3"/>
         <v>37742</v>
@@ -4016,7 +4015,7 @@
         <v>37767</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <f t="shared" si="3"/>
         <v>37773</v>
@@ -4043,7 +4042,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23"/>
       <c r="B98" s="20" t="s">
         <v>44</v>
@@ -4062,7 +4061,7 @@
         <v>37796</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>135</v>
@@ -4079,7 +4078,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <f>EDATE(A97,1)</f>
         <v>37803</v>
@@ -4106,7 +4105,7 @@
         <v>37803</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>44</v>
@@ -4125,7 +4124,7 @@
         <v>37820</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>45</v>
@@ -4142,7 +4141,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <f>EDATE(A100,1)</f>
         <v>37834</v>
@@ -4169,7 +4168,7 @@
         <v>37837</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
         <v>44</v>
@@ -4188,7 +4187,7 @@
         <v>37859</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <f>EDATE(A103,1)</f>
         <v>37865</v>
@@ -4215,7 +4214,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>55</v>
@@ -4234,7 +4233,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23"/>
       <c r="B107" s="20" t="s">
         <v>44</v>
@@ -4253,7 +4252,7 @@
         <v>37890</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>106</v>
@@ -4270,7 +4269,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <f>EDATE(A105,1)</f>
         <v>37895</v>
@@ -4297,7 +4296,7 @@
         <v>37915</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23"/>
       <c r="B110" s="20" t="s">
         <v>45</v>
@@ -4314,7 +4313,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <f>EDATE(A109,1)</f>
         <v>37926</v>
@@ -4341,7 +4340,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23"/>
       <c r="B112" s="20" t="s">
         <v>44</v>
@@ -4360,7 +4359,7 @@
         <v>37952</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23"/>
       <c r="B113" s="20" t="s">
         <v>142</v>
@@ -4377,7 +4376,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="49"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <f>EDATE(A111,1)</f>
         <v>37956</v>
@@ -4402,7 +4401,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="48" t="s">
         <v>136</v>
       </c>
@@ -4420,7 +4419,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <v>37987</v>
       </c>
@@ -4446,7 +4445,7 @@
         <v>37995</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>52</v>
@@ -4465,7 +4464,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>106</v>
@@ -4482,7 +4481,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <f>EDATE(A116,1)</f>
         <v>38018</v>
@@ -4509,7 +4508,7 @@
         <v>38036</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>88</v>
@@ -4526,7 +4525,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <f>EDATE(A119,1)</f>
         <v>38047</v>
@@ -4553,7 +4552,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23"/>
       <c r="B122" s="20" t="s">
         <v>46</v>
@@ -4572,7 +4571,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23"/>
       <c r="B123" s="20" t="s">
         <v>52</v>
@@ -4591,7 +4590,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>145</v>
@@ -4608,7 +4607,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <f>EDATE(A121,1)</f>
         <v>38078</v>
@@ -4635,7 +4634,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23"/>
       <c r="B126" s="20" t="s">
         <v>149</v>
@@ -4652,7 +4651,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23">
         <f>EDATE(A125,1)</f>
         <v>38108</v>
@@ -4679,7 +4678,7 @@
         <v>38125</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23"/>
       <c r="B128" s="20" t="s">
         <v>44</v>
@@ -4698,7 +4697,7 @@
         <v>38131</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23"/>
       <c r="B129" s="20" t="s">
         <v>52</v>
@@ -4717,7 +4716,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23"/>
       <c r="B130" s="20" t="s">
         <v>151</v>
@@ -4734,7 +4733,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <f>EDATE(A127,1)</f>
         <v>38139</v>
@@ -4759,7 +4758,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <f t="shared" ref="A132" si="4">EDATE(A131,1)</f>
         <v>38169</v>
@@ -4786,7 +4785,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23"/>
       <c r="B133" s="20" t="s">
         <v>44</v>
@@ -4805,7 +4804,7 @@
         <v>38191</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
         <v>44</v>
@@ -4824,7 +4823,7 @@
         <v>38197</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23"/>
       <c r="B135" s="20" t="s">
         <v>44</v>
@@ -4843,7 +4842,7 @@
         <v>38201</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <f>EDATE(A132,1)</f>
         <v>38200</v>
@@ -4868,7 +4867,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <f>EDATE(A136,1)</f>
         <v>38231</v>
@@ -4895,7 +4894,7 @@
         <v>38238</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23"/>
       <c r="B138" s="20" t="s">
         <v>44</v>
@@ -4914,7 +4913,7 @@
         <v>38239</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>85</v>
@@ -4931,7 +4930,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>137</v>
@@ -4948,7 +4947,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <f>EDATE(A137,1)</f>
         <v>38261</v>
@@ -4975,7 +4974,7 @@
         <v>38272</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23"/>
       <c r="B142" s="20" t="s">
         <v>45</v>
@@ -4992,7 +4991,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23"/>
       <c r="B143" s="20" t="s">
         <v>52</v>
@@ -5011,7 +5010,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
         <v>156</v>
@@ -5028,7 +5027,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <f>EDATE(A141,1)</f>
         <v>38292</v>
@@ -5055,7 +5054,7 @@
         <v>38293</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>44</v>
@@ -5074,7 +5073,7 @@
         <v>38302</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23"/>
       <c r="B147" s="20" t="s">
         <v>45</v>
@@ -5091,7 +5090,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>159</v>
@@ -5108,7 +5107,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <f>EDATE(A145,1)</f>
         <v>38322</v>
@@ -5133,7 +5132,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="48" t="s">
         <v>162</v>
       </c>
@@ -5151,7 +5150,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
         <f>EDATE(A149,1)</f>
         <v>38353</v>
@@ -5176,7 +5175,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <f>EDATE(A151,1)</f>
         <v>38384</v>
@@ -5201,7 +5200,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <f t="shared" ref="A153:A156" si="5">EDATE(A152,1)</f>
         <v>38412</v>
@@ -5228,7 +5227,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>165</v>
@@ -5245,7 +5244,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <f>EDATE(A153,1)</f>
         <v>38443</v>
@@ -5270,7 +5269,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23">
         <f t="shared" si="5"/>
         <v>38473</v>
@@ -5297,7 +5296,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
         <v>44</v>
@@ -5316,7 +5315,7 @@
         <v>38490</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23"/>
       <c r="B158" s="20" t="s">
         <v>44</v>
@@ -5335,7 +5334,7 @@
         <v>38502</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23"/>
       <c r="B159" s="20" t="s">
         <v>168</v>
@@ -5352,7 +5351,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23">
         <f>EDATE(A156,1)</f>
         <v>38504</v>
@@ -5379,7 +5378,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>94</v>
@@ -5398,7 +5397,7 @@
         <v>38490</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23"/>
       <c r="B162" s="20" t="s">
         <v>52</v>
@@ -5417,7 +5416,7 @@
         <v>38502</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>170</v>
@@ -5434,7 +5433,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <f>EDATE(A160,1)</f>
         <v>38534</v>
@@ -5461,7 +5460,7 @@
         <v>38538</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
         <v>45</v>
@@ -5478,7 +5477,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>173</v>
@@ -5495,7 +5494,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>45</v>
@@ -5512,7 +5511,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23">
         <f>EDATE(A164,1)</f>
         <v>38565</v>
@@ -5539,7 +5538,7 @@
         <v>38575</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>44</v>
@@ -5558,7 +5557,7 @@
         <v>38594</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>175</v>
@@ -5575,7 +5574,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23">
         <f>EDATE(A168,1)</f>
         <v>38596</v>
@@ -5602,7 +5601,7 @@
         <v>38624</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>177</v>
@@ -5619,7 +5618,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <f>EDATE(A171,1)</f>
         <v>38626</v>
@@ -5646,7 +5645,7 @@
         <v>38629</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>178</v>
@@ -5663,7 +5662,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <f>EDATE(A173,1)</f>
         <v>38657</v>
@@ -5690,7 +5689,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>63</v>
@@ -5711,7 +5710,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <f>EDATE(A175,1)</f>
         <v>38687</v>
@@ -5738,7 +5737,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>182</v>
@@ -5758,7 +5757,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="48" t="s">
         <v>184</v>
       </c>
@@ -5776,7 +5775,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23">
         <f>EDATE(A177,1)</f>
         <v>38718</v>
@@ -5801,7 +5800,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>185</v>
@@ -5818,7 +5817,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <f>EDATE(A180,1)</f>
         <v>38749</v>
@@ -5845,7 +5844,7 @@
         <v>38758</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>186</v>
@@ -5862,7 +5861,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23">
         <f>EDATE(A182,1)</f>
         <v>38777</v>
@@ -5889,7 +5888,7 @@
         <v>38792</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>187</v>
@@ -5906,7 +5905,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <f>EDATE(A184,1)</f>
         <v>38808</v>
@@ -5933,7 +5932,7 @@
         <v>38825</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>44</v>
@@ -5952,7 +5951,7 @@
         <v>38846</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>188</v>
@@ -5969,7 +5968,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <f>EDATE(A186,1)</f>
         <v>38838</v>
@@ -5996,7 +5995,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>191</v>
@@ -6013,7 +6012,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <f>EDATE(A189,1)</f>
         <v>38869</v>
@@ -6040,7 +6039,7 @@
         <v>38891</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>192</v>
@@ -6057,7 +6056,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23">
         <f>EDATE(A191,1)</f>
         <v>38899</v>
@@ -6084,7 +6083,7 @@
         <v>38902</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>44</v>
@@ -6103,7 +6102,7 @@
         <v>38915</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23"/>
       <c r="B195" s="20" t="s">
         <v>45</v>
@@ -6120,7 +6119,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23"/>
       <c r="B196" s="20" t="s">
         <v>193</v>
@@ -6137,7 +6136,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23">
         <f>EDATE(A193,1)</f>
         <v>38930</v>
@@ -6162,7 +6161,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23">
         <f t="shared" ref="A198:A204" si="6">EDATE(A197,1)</f>
         <v>38961</v>
@@ -6191,7 +6190,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>55</v>
@@ -6210,7 +6209,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>132</v>
@@ -6227,7 +6226,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <f>EDATE(A198,1)</f>
         <v>38991</v>
@@ -6254,7 +6253,7 @@
         <v>39002</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>199</v>
@@ -6275,7 +6274,7 @@
         <v>39023</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <f>EDATE(A201,1)</f>
         <v>39022</v>
@@ -6302,7 +6301,7 @@
         <v>39055</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23">
         <f t="shared" si="6"/>
         <v>39052</v>
@@ -6327,7 +6326,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="48" t="s">
         <v>200</v>
       </c>
@@ -6345,7 +6344,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <v>39083</v>
       </c>
@@ -6369,7 +6368,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>44</v>
@@ -6388,7 +6387,7 @@
         <v>39156</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23">
         <f>EDATE(A206,1)</f>
         <v>39114</v>
@@ -6409,7 +6408,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23">
         <f t="shared" ref="A209:A222" si="7">EDATE(A208,1)</f>
         <v>39142</v>
@@ -6430,7 +6429,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23">
         <f t="shared" si="7"/>
         <v>39173</v>
@@ -6451,7 +6450,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <f t="shared" si="7"/>
         <v>39203</v>
@@ -6472,7 +6471,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23">
         <f t="shared" si="7"/>
         <v>39234</v>
@@ -6493,7 +6492,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23">
         <f t="shared" si="7"/>
         <v>39264</v>
@@ -6518,7 +6517,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>131</v>
@@ -6537,7 +6536,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>44</v>
@@ -6556,7 +6555,7 @@
         <v>39294</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23">
         <f>EDATE(A213,1)</f>
         <v>39295</v>
@@ -6577,7 +6576,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <f t="shared" si="7"/>
         <v>39326</v>
@@ -6604,7 +6603,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23"/>
       <c r="B218" s="20" t="s">
         <v>61</v>
@@ -6623,7 +6622,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>131</v>
@@ -6642,7 +6641,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <f>EDATE(A217,1)</f>
         <v>39356</v>
@@ -6663,7 +6662,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23">
         <f t="shared" si="7"/>
         <v>39387</v>
@@ -6684,7 +6683,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23">
         <f t="shared" si="7"/>
         <v>39417</v>
@@ -6711,7 +6710,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="48" t="s">
         <v>208</v>
       </c>
@@ -6729,7 +6728,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <f>EDATE(A222,1)</f>
         <v>39448</v>
@@ -6750,7 +6749,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23">
         <f>EDATE(A224,1)</f>
         <v>39479</v>
@@ -6771,7 +6770,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23">
         <f>EDATE(A225,1)</f>
         <v>39508</v>
@@ -6792,7 +6791,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <f t="shared" ref="A227:A237" si="8">EDATE(A226,1)</f>
         <v>39539</v>
@@ -6813,7 +6812,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <f t="shared" si="8"/>
         <v>39569</v>
@@ -6838,7 +6837,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <f t="shared" si="8"/>
         <v>39600</v>
@@ -6859,7 +6858,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23">
         <f t="shared" si="8"/>
         <v>39630</v>
@@ -6886,7 +6885,7 @@
         <v>39636</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>45</v>
@@ -6903,7 +6902,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <f>EDATE(A230,1)</f>
         <v>39661</v>
@@ -6930,7 +6929,7 @@
         <v>39690</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23">
         <f t="shared" si="8"/>
         <v>39692</v>
@@ -6955,7 +6954,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23"/>
       <c r="B234" s="20" t="s">
         <v>45</v>
@@ -6972,7 +6971,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23">
         <f>EDATE(A233,1)</f>
         <v>39722</v>
@@ -6993,7 +6992,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <f t="shared" si="8"/>
         <v>39753</v>
@@ -7014,7 +7013,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <f t="shared" si="8"/>
         <v>39783</v>
@@ -7039,7 +7038,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="48" t="s">
         <v>212</v>
       </c>
@@ -7057,7 +7056,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23">
         <f>EDATE(A237,1)</f>
         <v>39814</v>
@@ -7078,7 +7077,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23">
         <f>EDATE(A239,1)</f>
         <v>39845</v>
@@ -7099,7 +7098,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23">
         <f t="shared" ref="A241:A250" si="9">EDATE(A240,1)</f>
         <v>39873</v>
@@ -7120,7 +7119,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23">
         <f t="shared" si="9"/>
         <v>39904</v>
@@ -7141,7 +7140,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23">
         <f t="shared" si="9"/>
         <v>39934</v>
@@ -7166,7 +7165,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <f t="shared" si="9"/>
         <v>39965</v>
@@ -7187,7 +7186,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <f t="shared" si="9"/>
         <v>39995</v>
@@ -7212,7 +7211,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <f t="shared" si="9"/>
         <v>40026</v>
@@ -7239,7 +7238,7 @@
         <v>40029</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23">
         <f t="shared" si="9"/>
         <v>40057</v>
@@ -7266,7 +7265,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23">
         <f t="shared" si="9"/>
         <v>40087</v>
@@ -7293,7 +7292,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23">
         <f t="shared" si="9"/>
         <v>40118</v>
@@ -7314,7 +7313,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23">
         <f t="shared" si="9"/>
         <v>40148</v>
@@ -7341,7 +7340,7 @@
         <v>40166</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23"/>
       <c r="B251" s="20" t="s">
         <v>217</v>
@@ -7361,7 +7360,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="48" t="s">
         <v>218</v>
       </c>
@@ -7379,7 +7378,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23">
         <f>EDATE(A250,1)</f>
         <v>40179</v>
@@ -7406,7 +7405,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23"/>
       <c r="B254" s="20" t="s">
         <v>44</v>
@@ -7425,7 +7424,7 @@
         <v>40192</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>61</v>
@@ -7444,7 +7443,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <f>EDATE(A253,1)</f>
         <v>40210</v>
@@ -7471,7 +7470,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23">
         <f t="shared" ref="A257:A271" si="10">EDATE(A256,1)</f>
         <v>40238</v>
@@ -7494,7 +7493,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23">
         <f t="shared" si="10"/>
         <v>40269</v>
@@ -7521,7 +7520,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
         <v>52</v>
@@ -7540,7 +7539,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>63</v>
@@ -7559,7 +7558,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <f>EDATE(A258,1)</f>
         <v>40299</v>
@@ -7586,7 +7585,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
         <v>63</v>
@@ -7605,7 +7604,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>227</v>
@@ -7624,7 +7623,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <f>EDATE(A261,1)</f>
         <v>40330</v>
@@ -7651,7 +7650,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23">
         <f t="shared" si="10"/>
         <v>40360</v>
@@ -7672,7 +7671,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <f t="shared" si="10"/>
         <v>40391</v>
@@ -7699,7 +7698,7 @@
         <v>40410</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23">
         <f t="shared" si="10"/>
         <v>40422</v>
@@ -7724,7 +7723,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>46</v>
@@ -7743,7 +7742,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <f>EDATE(A267,1)</f>
         <v>40452</v>
@@ -7768,7 +7767,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23">
         <f t="shared" si="10"/>
         <v>40483</v>
@@ -7789,7 +7788,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <f t="shared" si="10"/>
         <v>40513</v>
@@ -7810,7 +7809,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="48" t="s">
         <v>236</v>
       </c>
@@ -7828,7 +7827,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <f>EDATE(A271,1)</f>
         <v>40544</v>
@@ -7849,7 +7848,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23">
         <f>EDATE(A273,1)</f>
         <v>40575</v>
@@ -7870,7 +7869,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23">
         <f t="shared" ref="A275:A290" si="11">EDATE(A274,1)</f>
         <v>40603</v>
@@ -7891,7 +7890,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <f t="shared" si="11"/>
         <v>40634</v>
@@ -7912,7 +7911,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23">
         <f t="shared" si="11"/>
         <v>40664</v>
@@ -7937,7 +7936,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>222</v>
@@ -7954,7 +7953,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23">
         <f>EDATE(A277,1)</f>
         <v>40695</v>
@@ -7979,7 +7978,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <f t="shared" si="11"/>
         <v>40725</v>
@@ -8006,7 +8005,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>45</v>
@@ -8023,7 +8022,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23"/>
       <c r="B282" s="20" t="s">
         <v>239</v>
@@ -8040,7 +8039,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23">
         <f>EDATE(A280,1)</f>
         <v>40756</v>
@@ -8065,7 +8064,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23">
         <f t="shared" si="11"/>
         <v>40787</v>
@@ -8090,7 +8089,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23">
         <f t="shared" si="11"/>
         <v>40817</v>
@@ -8117,7 +8116,7 @@
         <v>40818</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>176</v>
@@ -8136,7 +8135,7 @@
         <v>40817</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23"/>
       <c r="B287" s="20" t="s">
         <v>45</v>
@@ -8153,7 +8152,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23"/>
       <c r="B288" s="20" t="s">
         <v>227</v>
@@ -8172,7 +8171,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23">
         <f>EDATE(A285,1)</f>
         <v>40848</v>
@@ -8197,7 +8196,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23">
         <f t="shared" si="11"/>
         <v>40878</v>
@@ -8218,7 +8217,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="48" t="s">
         <v>246</v>
       </c>
@@ -8236,7 +8235,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23">
         <v>40909</v>
       </c>
@@ -8256,7 +8255,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23">
         <f>EDATE(A292,1)</f>
         <v>40940</v>
@@ -8277,7 +8276,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <f t="shared" ref="A294:A305" si="12">EDATE(A293,1)</f>
         <v>40969</v>
@@ -8298,7 +8297,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23">
         <f t="shared" si="12"/>
         <v>41000</v>
@@ -8319,7 +8318,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23">
         <f t="shared" si="12"/>
         <v>41030</v>
@@ -8340,7 +8339,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <f t="shared" si="12"/>
         <v>41061</v>
@@ -8367,7 +8366,7 @@
         <v>41062</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23">
         <f t="shared" si="12"/>
         <v>41091</v>
@@ -8392,7 +8391,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23">
         <f t="shared" si="12"/>
         <v>41122</v>
@@ -8419,7 +8418,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>54</v>
@@ -8438,7 +8437,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23">
         <f>EDATE(A299,1)</f>
         <v>41153</v>
@@ -8463,7 +8462,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>131</v>
@@ -8482,7 +8481,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23">
         <f>EDATE(A301,1)</f>
         <v>41183</v>
@@ -8503,7 +8502,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23">
         <f t="shared" si="12"/>
         <v>41214</v>
@@ -8524,7 +8523,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23">
         <f t="shared" si="12"/>
         <v>41244</v>
@@ -8549,7 +8548,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="48" t="s">
         <v>253</v>
       </c>
@@ -8567,7 +8566,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23">
         <f>EDATE(A305,1)</f>
         <v>41275</v>
@@ -8588,7 +8587,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23">
         <f>EDATE(A307,1)</f>
         <v>41306</v>
@@ -8609,7 +8608,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <f t="shared" ref="A309:A319" si="13">EDATE(A308,1)</f>
         <v>41334</v>
@@ -8630,7 +8629,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23">
         <f t="shared" si="13"/>
         <v>41365</v>
@@ -8657,7 +8656,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23"/>
       <c r="B311" s="20" t="s">
         <v>44</v>
@@ -8676,7 +8675,7 @@
         <v>41389</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <f>EDATE(A310,1)</f>
         <v>41395</v>
@@ -8701,7 +8700,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <f t="shared" si="13"/>
         <v>41426</v>
@@ -8722,7 +8721,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <f t="shared" si="13"/>
         <v>41456</v>
@@ -8747,7 +8746,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>52</v>
@@ -8766,7 +8765,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23">
         <f>EDATE(A314,1)</f>
         <v>41487</v>
@@ -8787,7 +8786,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <f t="shared" si="13"/>
         <v>41518</v>
@@ -8808,7 +8807,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23">
         <f t="shared" si="13"/>
         <v>41548</v>
@@ -8829,7 +8828,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23">
         <f t="shared" si="13"/>
         <v>41579</v>
@@ -8856,7 +8855,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23"/>
       <c r="B320" s="20" t="s">
         <v>52</v>
@@ -8875,7 +8874,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>52</v>
@@ -8894,7 +8893,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23">
         <f>EDATE(A319,1)</f>
         <v>41609</v>
@@ -8921,7 +8920,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23"/>
       <c r="B323" s="20" t="s">
         <v>52</v>
@@ -8943,7 +8942,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23"/>
       <c r="B324" s="20" t="s">
         <v>52</v>
@@ -8965,7 +8964,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="48" t="s">
         <v>261</v>
       </c>
@@ -8983,7 +8982,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23">
         <v>41640</v>
       </c>
@@ -9003,7 +9002,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23">
         <f>EDATE(A326,1)</f>
         <v>41671</v>
@@ -9024,7 +9023,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23">
         <f>EDATE(A327,1)</f>
         <v>41699</v>
@@ -9051,7 +9050,7 @@
         <v>41725</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23">
         <f t="shared" ref="A329:A339" si="14">EDATE(A328,1)</f>
         <v>41730</v>
@@ -9072,7 +9071,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23">
         <f t="shared" si="14"/>
         <v>41760</v>
@@ -9097,7 +9096,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23"/>
       <c r="B331" s="20" t="s">
         <v>46</v>
@@ -9116,7 +9115,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23">
         <f>EDATE(A330,1)</f>
         <v>41791</v>
@@ -9137,7 +9136,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23">
         <f t="shared" si="14"/>
         <v>41821</v>
@@ -9164,7 +9163,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23"/>
       <c r="B334" s="20" t="s">
         <v>45</v>
@@ -9181,7 +9180,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23">
         <f>EDATE(A333,1)</f>
         <v>41852</v>
@@ -9202,7 +9201,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23">
         <f t="shared" si="14"/>
         <v>41883</v>
@@ -9229,7 +9228,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23"/>
       <c r="B337" s="20" t="s">
         <v>63</v>
@@ -9248,7 +9247,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23">
         <f>EDATE(A336,1)</f>
         <v>41913</v>
@@ -9269,7 +9268,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23">
         <f t="shared" si="14"/>
         <v>41944</v>
@@ -9296,7 +9295,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>45</v>
@@ -9316,7 +9315,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23">
         <f>EDATE(A339,1)</f>
         <v>41974</v>
@@ -9335,7 +9334,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="48" t="s">
         <v>270</v>
       </c>
@@ -9353,7 +9352,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23">
         <f>EDATE(A341,1)</f>
         <v>42005</v>
@@ -9374,7 +9373,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23">
         <f>EDATE(A343,1)</f>
         <v>42036</v>
@@ -9395,7 +9394,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23">
         <f t="shared" ref="A345:A355" si="15">EDATE(A344,1)</f>
         <v>42064</v>
@@ -9420,7 +9419,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23">
         <f t="shared" si="15"/>
         <v>42095</v>
@@ -9445,7 +9444,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23">
         <f t="shared" si="15"/>
         <v>42125</v>
@@ -9470,7 +9469,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23">
         <f t="shared" si="15"/>
         <v>42156</v>
@@ -9495,7 +9494,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23"/>
       <c r="B349" s="20" t="s">
         <v>45</v>
@@ -9512,7 +9511,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23">
         <f>EDATE(A348,1)</f>
         <v>42186</v>
@@ -9533,7 +9532,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23">
         <f t="shared" si="15"/>
         <v>42217</v>
@@ -9554,7 +9553,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23">
         <f t="shared" si="15"/>
         <v>42248</v>
@@ -9575,7 +9574,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23">
         <f t="shared" si="15"/>
         <v>42278</v>
@@ -9598,7 +9597,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23">
         <f t="shared" si="15"/>
         <v>42309</v>
@@ -9623,7 +9622,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23">
         <f t="shared" si="15"/>
         <v>42339</v>
@@ -9648,7 +9647,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="48" t="s">
         <v>277</v>
       </c>
@@ -9666,7 +9665,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23">
         <v>42370</v>
       </c>
@@ -9690,7 +9689,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="23">
         <f>EDATE(A357,1)</f>
         <v>42401</v>
@@ -9715,7 +9714,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23">
         <f t="shared" ref="A359:A368" si="16">EDATE(A358,1)</f>
         <v>42430</v>
@@ -9740,7 +9739,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23">
         <f t="shared" si="16"/>
         <v>42461</v>
@@ -9761,7 +9760,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23">
         <f t="shared" si="16"/>
         <v>42491</v>
@@ -9782,7 +9781,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23">
         <f t="shared" si="16"/>
         <v>42522</v>
@@ -9807,7 +9806,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23"/>
       <c r="B363" s="20" t="s">
         <v>45</v>
@@ -9824,7 +9823,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23">
         <f>EDATE(A362,1)</f>
         <v>42552</v>
@@ -9845,7 +9844,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23">
         <f t="shared" si="16"/>
         <v>42583</v>
@@ -9866,7 +9865,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23">
         <f t="shared" si="16"/>
         <v>42614</v>
@@ -9893,7 +9892,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23">
         <f t="shared" si="16"/>
         <v>42644</v>
@@ -9914,7 +9913,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23">
         <f t="shared" si="16"/>
         <v>42675</v>
@@ -9941,7 +9940,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23"/>
       <c r="B369" s="20" t="s">
         <v>45</v>
@@ -9958,7 +9957,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23">
         <f>EDATE(A368,1)</f>
         <v>42705</v>
@@ -9979,7 +9978,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="48" t="s">
         <v>286</v>
       </c>
@@ -9994,7 +9993,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="23">
         <v>42736</v>
       </c>
@@ -10014,7 +10013,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23">
         <f>EDATE(A372,1)</f>
         <v>42767</v>
@@ -10035,7 +10034,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23">
         <f t="shared" ref="A374:A382" si="17">EDATE(A373,1)</f>
         <v>42795</v>
@@ -10056,7 +10055,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23">
         <f t="shared" si="17"/>
         <v>42826</v>
@@ -10077,7 +10076,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23">
         <f t="shared" si="17"/>
         <v>42856</v>
@@ -10098,7 +10097,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="23">
         <f t="shared" si="17"/>
         <v>42887</v>
@@ -10123,7 +10122,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23">
         <f t="shared" si="17"/>
         <v>42917</v>
@@ -10144,7 +10143,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="23">
         <f t="shared" si="17"/>
         <v>42948</v>
@@ -10165,7 +10164,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23">
         <f t="shared" si="17"/>
         <v>42979</v>
@@ -10192,7 +10191,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23">
         <f t="shared" si="17"/>
         <v>43009</v>
@@ -10213,7 +10212,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="23">
         <f t="shared" si="17"/>
         <v>43040</v>
@@ -10240,7 +10239,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="23"/>
       <c r="B383" s="20" t="s">
         <v>45</v>
@@ -10257,7 +10256,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="23">
         <f>EDATE(A382,1)</f>
         <v>43070</v>
@@ -10278,7 +10277,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="23"/>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -10294,7 +10293,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="48" t="s">
         <v>43</v>
       </c>
@@ -10312,7 +10311,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>43101</v>
       </c>
@@ -10332,7 +10331,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>43132</v>
       </c>
@@ -10358,7 +10357,7 @@
         <v>43154</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>43160</v>
       </c>
@@ -10378,7 +10377,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>43191</v>
       </c>
@@ -10398,7 +10397,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>43221</v>
       </c>
@@ -10418,7 +10417,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>43252</v>
       </c>
@@ -10438,7 +10437,7 @@
       <c r="J392" s="12"/>
       <c r="K392" s="15"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>43282</v>
       </c>
@@ -10462,7 +10461,7 @@
         <v>43313</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>43313</v>
       </c>
@@ -10482,7 +10481,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>43344</v>
       </c>
@@ -10510,7 +10509,7 @@
         <v>43362</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>43374</v>
       </c>
@@ -10536,7 +10535,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>48</v>
@@ -10555,7 +10554,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>45</v>
@@ -10572,7 +10571,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>43405</v>
       </c>
@@ -10592,7 +10591,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>43435</v>
       </c>
@@ -10616,7 +10615,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="48" t="s">
         <v>51</v>
       </c>
@@ -10634,7 +10633,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>43466</v>
       </c>
@@ -10654,7 +10653,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>43497</v>
       </c>
@@ -10674,7 +10673,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>43525</v>
       </c>
@@ -10694,7 +10693,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>43556</v>
       </c>
@@ -10714,7 +10713,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>43586</v>
       </c>
@@ -10734,7 +10733,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>43617</v>
       </c>
@@ -10758,7 +10757,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>52</v>
@@ -10777,7 +10776,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>43647</v>
       </c>
@@ -10801,7 +10800,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>52</v>
@@ -10820,7 +10819,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>43678</v>
       </c>
@@ -10846,7 +10845,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>43709</v>
       </c>
@@ -10866,7 +10865,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>43739</v>
       </c>
@@ -10886,7 +10885,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>43770</v>
       </c>
@@ -10912,7 +10911,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>45</v>
@@ -10929,7 +10928,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>43800</v>
       </c>
@@ -10949,7 +10948,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="48" t="s">
         <v>59</v>
       </c>
@@ -10967,7 +10966,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>43831</v>
       </c>
@@ -10987,7 +10986,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>43862</v>
       </c>
@@ -11011,7 +11010,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>43891</v>
       </c>
@@ -11031,7 +11030,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>43922</v>
       </c>
@@ -11051,7 +11050,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>43952</v>
       </c>
@@ -11071,7 +11070,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>43983</v>
       </c>
@@ -11091,7 +11090,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>44013</v>
       </c>
@@ -11115,7 +11114,7 @@
         <v>44044</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>44044</v>
       </c>
@@ -11135,7 +11134,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>44075</v>
       </c>
@@ -11161,7 +11160,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>44105</v>
       </c>
@@ -11181,7 +11180,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>44136</v>
       </c>
@@ -11201,7 +11200,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>44166</v>
       </c>
@@ -11225,7 +11224,7 @@
         <v>44169</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>45</v>
@@ -11245,7 +11244,7 @@
         <v>44187</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>61</v>
@@ -11265,7 +11264,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="48" t="s">
         <v>62</v>
       </c>
@@ -11283,7 +11282,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>44197</v>
       </c>
@@ -11303,7 +11302,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>44228</v>
       </c>
@@ -11323,7 +11322,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>44256</v>
       </c>
@@ -11347,7 +11346,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>44287</v>
       </c>
@@ -11367,7 +11366,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>44317</v>
       </c>
@@ -11393,7 +11392,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>63</v>
@@ -11412,7 +11411,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>44348</v>
       </c>
@@ -11438,7 +11437,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>52</v>
@@ -11457,7 +11456,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>45</v>
@@ -11474,7 +11473,7 @@
         <v>44416</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>44378</v>
       </c>
@@ -11494,7 +11493,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>44409</v>
       </c>
@@ -11514,7 +11513,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>44440</v>
       </c>
@@ -11534,7 +11533,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>44470</v>
       </c>
@@ -11560,7 +11559,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>44501</v>
       </c>
@@ -11584,7 +11583,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>54</v>
@@ -11603,7 +11602,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>44531</v>
       </c>
@@ -11623,7 +11622,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="48" t="s">
         <v>74</v>
       </c>
@@ -11641,7 +11640,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>44562</v>
       </c>
@@ -11661,7 +11660,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>44593</v>
       </c>
@@ -11681,7 +11680,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>44621</v>
       </c>
@@ -11701,7 +11700,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>44652</v>
       </c>
@@ -11721,7 +11720,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>44682</v>
       </c>
@@ -11741,7 +11740,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>44713</v>
       </c>
@@ -11767,7 +11766,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>45</v>
@@ -11784,7 +11783,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>44743</v>
       </c>
@@ -11804,7 +11803,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>44774</v>
       </c>
@@ -11824,7 +11823,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>44805</v>
       </c>
@@ -11844,7 +11843,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>44835</v>
       </c>
@@ -11864,7 +11863,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>44866</v>
       </c>
@@ -11888,7 +11887,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>54</v>
@@ -11910,7 +11909,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>55</v>
@@ -11932,7 +11931,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>44896</v>
       </c>
@@ -11952,7 +11951,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="48" t="s">
         <v>80</v>
       </c>
@@ -11970,7 +11969,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>44957</v>
       </c>
@@ -11990,7 +11989,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>44985</v>
       </c>
@@ -12010,7 +12009,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>45016</v>
       </c>
@@ -12030,7 +12029,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>45046</v>
       </c>
@@ -12056,7 +12055,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>45077</v>
       </c>
@@ -12076,7 +12075,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>45107</v>
       </c>
@@ -12096,11 +12095,13 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>45138</v>
       </c>
-      <c r="B472" s="20"/>
+      <c r="B472" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C472" s="13"/>
       <c r="D472" s="39"/>
       <c r="E472" s="9"/>
@@ -12112,9 +12113,11 @@
       <c r="H472" s="39"/>
       <c r="I472" s="9"/>
       <c r="J472" s="11"/>
-      <c r="K472" s="20"/>
-    </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K472" s="49">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>45169</v>
       </c>
@@ -12132,7 +12135,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>45199</v>
       </c>
@@ -12150,7 +12153,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>45230</v>
       </c>
@@ -12168,7 +12171,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>45260</v>
       </c>
@@ -12186,7 +12189,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>45291</v>
       </c>
@@ -12204,7 +12207,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>45322</v>
       </c>
@@ -12222,7 +12225,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>45351</v>
       </c>
@@ -12240,7 +12243,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>45382</v>
       </c>
@@ -12258,7 +12261,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>45412</v>
       </c>
@@ -12276,7 +12279,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -12292,7 +12295,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40"/>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -12308,7 +12311,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -12324,7 +12327,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -12340,7 +12343,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -12356,7 +12359,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -12372,7 +12375,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -12388,7 +12391,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -12404,7 +12407,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -12420,7 +12423,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -12436,7 +12439,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -12452,7 +12455,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -12468,7 +12471,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -12484,7 +12487,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -12500,7 +12503,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -12516,7 +12519,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -12532,7 +12535,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -12548,7 +12551,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -12564,7 +12567,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -12580,7 +12583,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -12596,7 +12599,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -12612,7 +12615,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -12628,7 +12631,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -12644,7 +12647,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -12660,7 +12663,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -12676,7 +12679,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -12692,7 +12695,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -12708,7 +12711,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -12724,7 +12727,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -12740,7 +12743,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -12756,7 +12759,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -12772,7 +12775,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -12788,7 +12791,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -12804,7 +12807,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -12820,7 +12823,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="41"/>
       <c r="B516" s="15"/>
       <c r="C516" s="42"/>
@@ -12851,10 +12854,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12877,28 +12880,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>32</v>
       </c>
@@ -12911,7 +12914,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12940,7 +12943,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>35.813000000000002</v>
       </c>
@@ -12970,17 +12973,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -13001,7 +13004,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -13028,7 +13031,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -13054,7 +13057,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -13080,7 +13083,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -13106,7 +13109,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -13132,7 +13135,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -13158,7 +13161,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -13184,7 +13187,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -13210,7 +13213,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -13230,7 +13233,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -13250,7 +13253,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -13270,7 +13273,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -13291,7 +13294,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -13312,7 +13315,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13333,7 +13336,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13354,7 +13357,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13375,7 +13378,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13396,7 +13399,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13417,7 +13420,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -13438,7 +13441,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13459,7 +13462,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13480,7 +13483,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13501,7 +13504,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13522,7 +13525,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13543,7 +13546,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13564,7 +13567,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13585,7 +13588,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -13606,7 +13609,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -13627,7 +13630,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -13648,7 +13651,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -13669,7 +13672,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -13690,7 +13693,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -13699,7 +13702,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -13708,7 +13711,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -13717,7 +13720,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -13726,7 +13729,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -13735,7 +13738,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -13744,7 +13747,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -13753,7 +13756,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -13762,7 +13765,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -13771,7 +13774,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -13780,7 +13783,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -13789,7 +13792,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -13798,7 +13801,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -13807,7 +13810,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -13816,7 +13819,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -13825,7 +13828,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -13834,7 +13837,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -13843,7 +13846,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -13852,7 +13855,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -13861,7 +13864,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -13870,7 +13873,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -13879,7 +13882,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -13888,7 +13891,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -13897,7 +13900,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -13906,7 +13909,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -13915,7 +13918,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -13924,7 +13927,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -13933,7 +13936,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -13942,7 +13945,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -13951,7 +13954,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
